--- a/course_requests.xlsx
+++ b/course_requests.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amanoj003\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://accesshub-my.sharepoint.com/personal/abmanoj_guidehouse_com/Documents/Desktop/Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5FA62E-352A-4A0E-A5CF-16C047095AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{0D5FA62E-352A-4A0E-A5CF-16C047095AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C663551-7796-471E-8ADF-1C242FAB01BE}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1160" yWindow="2470" windowWidth="15440" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Course Requests" sheetId="1" r:id="rId1"/>
@@ -67,13 +67,13 @@
     <t>Team B</t>
   </si>
   <si>
-    <t>Pending</t>
-  </si>
-  <si>
     <t>Trainer</t>
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>Approved</t>
   </si>
 </sst>
 </file>
@@ -453,7 +453,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -464,7 +464,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -491,7 +491,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -520,7 +520,10 @@
         <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="J2">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
